--- a/Docs/α版までの予定表(文化祭当日発表予定).xlsx
+++ b/Docs/α版までの予定表(文化祭当日発表予定).xlsx
@@ -865,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
